--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C709C6-0DBC-4D73-A661-BDF8B86A0403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F3727-25A1-47F4-A86F-F9C92F24B229}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -4681,32 +4681,20 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EVOPS.PIPELINE_API_TEST_WARNING</t>
-    </r>
+    <t>hmsg_template_server-96</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-247</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-248</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-294</t>
+  </si>
+  <si>
+    <t>PIPELINE_API_TEST_WARNING</t>
     <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_template_server-96</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-247</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-248</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-294</t>
   </si>
 </sst>
 </file>
@@ -5072,21 +5060,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5104,6 +5077,21 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5473,11 +5461,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -5486,21 +5474,21 @@
       <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -5611,11 +5599,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="22" t="s">
@@ -5653,19 +5641,19 @@
       <c r="C25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="25" t="s">
@@ -5692,7 +5680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
@@ -17967,8 +17955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView topLeftCell="D154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F179" sqref="F179"/>
+    <sheetView tabSelected="1" topLeftCell="D121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -17978,7 +17966,8 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.44140625" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" customWidth="1"/>
-    <col min="6" max="7" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
     <col min="8" max="8" width="37.88671875" customWidth="1"/>
     <col min="9" max="9" width="26.88671875" customWidth="1"/>
     <col min="10" max="10" width="14.109375" customWidth="1"/>
@@ -18016,1726 +18005,1726 @@
       <c r="H4" s="5"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="39" t="s">
         <v>416</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="37" t="s">
         <v>419</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="N7" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="37" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="F8" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="42">
+      <c r="F8" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="37">
         <v>0</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="N8" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="42" t="s">
+      <c r="N8" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="37" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="F9" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="42">
+      <c r="F9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="37">
         <v>0</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="37" t="s">
         <v>435</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="L9" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="N9" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="42" t="s">
+      <c r="N9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="37" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="F10" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="42">
+      <c r="F10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="37">
         <v>0</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="37" t="s">
         <v>437</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="37" t="s">
         <v>438</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="K10" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="N10" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="42" t="s">
+      <c r="N10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="37" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="F11" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="42">
+      <c r="F11" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="37">
         <v>0</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="37" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="F12" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="42">
+      <c r="F12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="37">
         <v>0</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="N12" s="42" t="s">
+      <c r="N12" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="37" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="42">
+      <c r="F13" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="37">
         <v>0</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L13" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="N13" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="42" t="s">
+      <c r="N13" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="37" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="42">
+      <c r="F14" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="37">
         <v>0</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K14" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="42" t="s">
+      <c r="L14" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="N14" s="42" t="s">
+      <c r="N14" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O14" s="42" t="s">
+      <c r="O14" s="37" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="42">
+      <c r="F15" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="37">
         <v>0</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="37" t="s">
         <v>454</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="N15" s="42" t="s">
+      <c r="N15" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O15" s="42" t="s">
+      <c r="O15" s="37" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="42">
+      <c r="F16" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="37">
         <v>0</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="42" t="s">
+      <c r="L16" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="N16" s="42" t="s">
+      <c r="N16" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O16" s="42" t="s">
+      <c r="O16" s="37" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="42">
+      <c r="F17" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="37">
         <v>0</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="42" t="s">
+      <c r="L17" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="42" t="s">
+      <c r="O17" s="37" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="42">
+      <c r="F18" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="37">
         <v>0</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="37" t="s">
         <v>467</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="L18" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="N18" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="42" t="s">
+      <c r="N18" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="37" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37" t="s">
         <v>468</v>
       </c>
-      <c r="F19" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="42">
+      <c r="F19" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="37">
         <v>0</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="N19" s="42" t="s">
+      <c r="N19" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O19" s="42" t="s">
+      <c r="O19" s="37" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="F20" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="42">
+      <c r="F20" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="37">
         <v>0</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="42" t="s">
+      <c r="L20" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="42" t="s">
+      <c r="O20" s="37" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="F21" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="42">
+      <c r="F21" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="37">
         <v>0</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="N21" s="42" t="s">
+      <c r="N21" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O21" s="42" t="s">
+      <c r="O21" s="37" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="F22" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="42">
+      <c r="F22" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="37">
         <v>0</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K22" s="42" t="s">
+      <c r="K22" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="42" t="s">
+      <c r="L22" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="N22" s="42" t="s">
+      <c r="N22" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O22" s="42" t="s">
+      <c r="O22" s="37" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="F23" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="42">
+      <c r="F23" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="37">
         <v>0</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K23" s="42" t="s">
+      <c r="K23" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="N23" s="42" t="s">
+      <c r="N23" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O23" s="42" t="s">
+      <c r="O23" s="37" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="F24" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="42">
+      <c r="F24" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="37">
         <v>0</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K24" s="42" t="s">
+      <c r="K24" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="37" t="s">
         <v>425</v>
       </c>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="N24" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="O24" s="42" t="s">
+      <c r="N24" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" s="37" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="F25" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="42">
+      <c r="F25" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="37">
         <v>0</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="42" t="s">
+      <c r="L25" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M25" s="42" t="s">
+      <c r="M25" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="N25" s="42" t="s">
+      <c r="N25" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O25" s="42" t="s">
+      <c r="O25" s="37" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37" t="s">
         <v>492</v>
       </c>
-      <c r="F26" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="42">
+      <c r="F26" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="37">
         <v>0</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H26" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="37" t="s">
         <v>494</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K26" s="42" t="s">
+      <c r="K26" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="42" t="s">
+      <c r="L26" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M26" s="42" t="s">
+      <c r="M26" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="N26" s="42" t="s">
+      <c r="N26" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O26" s="42" t="s">
+      <c r="O26" s="37" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37" t="s">
         <v>495</v>
       </c>
-      <c r="F27" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="42">
+      <c r="F27" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="37">
         <v>0</v>
       </c>
-      <c r="H27" s="42" t="s">
+      <c r="H27" s="37" t="s">
         <v>496</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K27" s="42" t="s">
+      <c r="K27" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="42" t="s">
+      <c r="L27" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M27" s="42" t="s">
+      <c r="M27" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="N27" s="42" t="s">
+      <c r="N27" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O27" s="42" t="s">
+      <c r="O27" s="37" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37" t="s">
         <v>498</v>
       </c>
-      <c r="F28" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="42">
+      <c r="F28" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="37">
         <v>0</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="37" t="s">
         <v>499</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K28" s="42" t="s">
+      <c r="K28" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L28" s="42" t="s">
+      <c r="L28" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M28" s="42" t="s">
+      <c r="M28" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="N28" s="42" t="s">
+      <c r="N28" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O28" s="42" t="s">
+      <c r="O28" s="37" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37" t="s">
         <v>500</v>
       </c>
-      <c r="F29" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="42">
+      <c r="F29" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="37">
         <v>0</v>
       </c>
-      <c r="H29" s="42" t="s">
+      <c r="H29" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="J29" s="42" t="s">
+      <c r="J29" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K29" s="42" t="s">
+      <c r="K29" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="42" t="s">
+      <c r="L29" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M29" s="42" t="s">
+      <c r="M29" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="N29" s="42" t="s">
+      <c r="N29" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O29" s="42" t="s">
+      <c r="O29" s="37" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="F30" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="42">
+      <c r="F30" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="37">
         <v>0</v>
       </c>
-      <c r="H30" s="42" t="s">
+      <c r="H30" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="I30" s="42" t="s">
+      <c r="I30" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="J30" s="42" t="s">
+      <c r="J30" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K30" s="42" t="s">
+      <c r="K30" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="42" t="s">
+      <c r="L30" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M30" s="42" t="s">
+      <c r="M30" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="N30" s="42" t="s">
+      <c r="N30" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O30" s="42" t="s">
+      <c r="O30" s="37" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="F31" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="42">
+      <c r="F31" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="37">
         <v>0</v>
       </c>
-      <c r="H31" s="42" t="s">
+      <c r="H31" s="37" t="s">
         <v>507</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="I31" s="37" t="s">
         <v>508</v>
       </c>
-      <c r="J31" s="42" t="s">
+      <c r="J31" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="K31" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="42" t="s">
+      <c r="L31" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M31" s="42" t="s">
+      <c r="M31" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="N31" s="42" t="s">
+      <c r="N31" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O31" s="42" t="s">
+      <c r="O31" s="37" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37" t="s">
         <v>509</v>
       </c>
-      <c r="F32" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="42">
+      <c r="F32" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="37">
         <v>0</v>
       </c>
-      <c r="H32" s="42" t="s">
+      <c r="H32" s="37" t="s">
         <v>510</v>
       </c>
-      <c r="I32" s="42" t="s">
+      <c r="I32" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="J32" s="42" t="s">
+      <c r="J32" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K32" s="42" t="s">
+      <c r="K32" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L32" s="42" t="s">
+      <c r="L32" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M32" s="42" t="s">
+      <c r="M32" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="N32" s="42" t="s">
+      <c r="N32" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O32" s="42" t="s">
+      <c r="O32" s="37" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="F33" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="42">
+      <c r="F33" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="37">
         <v>0</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H33" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="I33" s="42" t="s">
+      <c r="I33" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="J33" s="42" t="s">
+      <c r="J33" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K33" s="42" t="s">
+      <c r="K33" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="42" t="s">
+      <c r="L33" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M33" s="42" t="s">
+      <c r="M33" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="N33" s="42" t="s">
+      <c r="N33" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O33" s="42" t="s">
+      <c r="O33" s="37" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="F34" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="42">
+      <c r="F34" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="37">
         <v>0</v>
       </c>
-      <c r="H34" s="42" t="s">
+      <c r="H34" s="37" t="s">
         <v>516</v>
       </c>
-      <c r="I34" s="42" t="s">
+      <c r="I34" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="J34" s="42" t="s">
+      <c r="J34" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K34" s="42" t="s">
+      <c r="K34" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L34" s="42" t="s">
+      <c r="L34" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M34" s="42" t="s">
+      <c r="M34" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="N34" s="42" t="s">
+      <c r="N34" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O34" s="42" t="s">
+      <c r="O34" s="37" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="F35" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="42">
+      <c r="F35" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="37">
         <v>0</v>
       </c>
-      <c r="H35" s="42" t="s">
+      <c r="H35" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="I35" s="42" t="s">
+      <c r="I35" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J35" s="42" t="s">
+      <c r="J35" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K35" s="42" t="s">
+      <c r="K35" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L35" s="42" t="s">
+      <c r="L35" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M35" s="42" t="s">
+      <c r="M35" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="N35" s="42" t="s">
+      <c r="N35" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O35" s="42" t="s">
+      <c r="O35" s="37" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="F36" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="42">
+      <c r="F36" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="37">
         <v>0</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H36" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="I36" s="42" t="s">
+      <c r="I36" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="J36" s="42" t="s">
+      <c r="J36" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K36" s="42" t="s">
+      <c r="K36" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L36" s="42" t="s">
+      <c r="L36" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M36" s="42" t="s">
+      <c r="M36" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="N36" s="42" t="s">
+      <c r="N36" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O36" s="42" t="s">
+      <c r="O36" s="37" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37" t="s">
         <v>523</v>
       </c>
-      <c r="F37" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="42">
+      <c r="F37" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="37">
         <v>0</v>
       </c>
-      <c r="H37" s="42" t="s">
+      <c r="H37" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="I37" s="42" t="s">
+      <c r="I37" s="37" t="s">
         <v>525</v>
       </c>
-      <c r="J37" s="42" t="s">
+      <c r="J37" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K37" s="42" t="s">
+      <c r="K37" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L37" s="42" t="s">
+      <c r="L37" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M37" s="42" t="s">
+      <c r="M37" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="N37" s="42" t="s">
+      <c r="N37" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O37" s="42" t="s">
+      <c r="O37" s="37" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="F38" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="42">
+      <c r="F38" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="37">
         <v>0</v>
       </c>
-      <c r="H38" s="42" t="s">
+      <c r="H38" s="37" t="s">
         <v>527</v>
       </c>
-      <c r="I38" s="42" t="s">
+      <c r="I38" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="J38" s="42" t="s">
+      <c r="J38" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K38" s="42" t="s">
+      <c r="K38" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L38" s="42" t="s">
+      <c r="L38" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M38" s="42" t="s">
+      <c r="M38" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="N38" s="42" t="s">
+      <c r="N38" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O38" s="42" t="s">
+      <c r="O38" s="37" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="F39" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="42">
+      <c r="F39" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="37">
         <v>0</v>
       </c>
-      <c r="H39" s="42" t="s">
+      <c r="H39" s="37" t="s">
         <v>530</v>
       </c>
-      <c r="I39" s="42" t="s">
+      <c r="I39" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="J39" s="42" t="s">
+      <c r="J39" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K39" s="42" t="s">
+      <c r="K39" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L39" s="42" t="s">
+      <c r="L39" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M39" s="42" t="s">
+      <c r="M39" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="N39" s="42" t="s">
+      <c r="N39" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O39" s="42" t="s">
+      <c r="O39" s="37" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="F40" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" s="42">
+      <c r="F40" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="37">
         <v>0</v>
       </c>
-      <c r="H40" s="42" t="s">
+      <c r="H40" s="37" t="s">
         <v>533</v>
       </c>
-      <c r="I40" s="42" t="s">
+      <c r="I40" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="J40" s="42" t="s">
+      <c r="J40" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K40" s="42" t="s">
+      <c r="K40" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L40" s="42" t="s">
+      <c r="L40" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M40" s="42" t="s">
+      <c r="M40" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="N40" s="42" t="s">
+      <c r="N40" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O40" s="42" t="s">
+      <c r="O40" s="37" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="F41" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="42">
+      <c r="F41" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="37">
         <v>0</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="37" t="s">
         <v>536</v>
       </c>
-      <c r="I41" s="42" t="s">
+      <c r="I41" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="J41" s="42" t="s">
+      <c r="J41" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K41" s="42" t="s">
+      <c r="K41" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L41" s="42" t="s">
+      <c r="L41" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M41" s="42" t="s">
+      <c r="M41" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="N41" s="42" t="s">
+      <c r="N41" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O41" s="42" t="s">
+      <c r="O41" s="37" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="F42" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="42">
+      <c r="F42" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="37">
         <v>0</v>
       </c>
-      <c r="H42" s="42" t="s">
+      <c r="H42" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="I42" s="42" t="s">
+      <c r="I42" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="J42" s="42" t="s">
+      <c r="J42" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K42" s="42" t="s">
+      <c r="K42" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L42" s="42" t="s">
+      <c r="L42" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M42" s="42" t="s">
+      <c r="M42" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="N42" s="42" t="s">
+      <c r="N42" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="O42" s="42" t="s">
+      <c r="O42" s="37" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="34.5">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="37">
         <v>0</v>
       </c>
-      <c r="G43" s="42">
+      <c r="G43" s="37">
         <v>0</v>
       </c>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="I43" s="46" t="s">
+      <c r="I43" s="41" t="s">
         <v>543</v>
       </c>
-      <c r="J43" s="42" t="s">
+      <c r="J43" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="37">
         <v>1</v>
       </c>
-      <c r="L43" s="46" t="s">
+      <c r="L43" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="M43" s="42" t="s">
+      <c r="M43" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="N43" s="42">
+      <c r="N43" s="37">
         <v>0</v>
       </c>
-      <c r="O43" s="42" t="s">
+      <c r="O43" s="37" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="37">
         <v>0</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G44" s="37">
         <v>0</v>
       </c>
-      <c r="H44" s="42" t="s">
+      <c r="H44" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="I44" s="46" t="s">
+      <c r="I44" s="41" t="s">
         <v>547</v>
       </c>
-      <c r="J44" s="42" t="s">
+      <c r="J44" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="37">
         <v>1</v>
       </c>
-      <c r="L44" s="46" t="s">
+      <c r="L44" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="M44" s="42" t="s">
+      <c r="M44" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="N44" s="42">
+      <c r="N44" s="37">
         <v>0</v>
       </c>
-      <c r="O44" s="42" t="s">
+      <c r="O44" s="37" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="37">
         <v>0</v>
       </c>
-      <c r="G45" s="42">
+      <c r="G45" s="37">
         <v>0</v>
       </c>
-      <c r="H45" s="42" t="s">
+      <c r="H45" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="I45" s="46" t="s">
+      <c r="I45" s="41" t="s">
         <v>550</v>
       </c>
-      <c r="J45" s="42" t="s">
+      <c r="J45" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K45" s="42">
+      <c r="K45" s="37">
         <v>1</v>
       </c>
-      <c r="L45" s="46" t="s">
+      <c r="L45" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="M45" s="42" t="s">
+      <c r="M45" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="N45" s="42">
+      <c r="N45" s="37">
         <v>0</v>
       </c>
-      <c r="O45" s="42" t="s">
+      <c r="O45" s="37" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="37">
         <v>0</v>
       </c>
-      <c r="G46" s="42">
+      <c r="G46" s="37">
         <v>0</v>
       </c>
-      <c r="H46" s="42" t="s">
+      <c r="H46" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="I46" s="46" t="s">
+      <c r="I46" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="J46" s="42" t="s">
+      <c r="J46" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K46" s="42">
+      <c r="K46" s="37">
         <v>1</v>
       </c>
-      <c r="L46" s="46" t="s">
+      <c r="L46" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="M46" s="42" t="s">
+      <c r="M46" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="N46" s="42">
+      <c r="N46" s="37">
         <v>0</v>
       </c>
-      <c r="O46" s="42" t="s">
+      <c r="O46" s="37" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="37">
         <v>0</v>
       </c>
-      <c r="G47" s="42">
+      <c r="G47" s="37">
         <v>0</v>
       </c>
-      <c r="H47" s="42" t="s">
+      <c r="H47" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="I47" s="46" t="s">
+      <c r="I47" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="J47" s="42" t="s">
+      <c r="J47" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K47" s="42">
+      <c r="K47" s="37">
         <v>1</v>
       </c>
-      <c r="L47" s="46" t="s">
+      <c r="L47" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="M47" s="42" t="s">
+      <c r="M47" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="N47" s="42">
+      <c r="N47" s="37">
         <v>0</v>
       </c>
-      <c r="O47" s="42" t="s">
+      <c r="O47" s="37" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="37">
         <v>0</v>
       </c>
-      <c r="G48" s="42">
+      <c r="G48" s="37">
         <v>0</v>
       </c>
-      <c r="H48" s="42" t="s">
+      <c r="H48" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="I48" s="46" t="s">
+      <c r="I48" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="J48" s="42" t="s">
+      <c r="J48" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K48" s="42">
+      <c r="K48" s="37">
         <v>1</v>
       </c>
-      <c r="L48" s="46" t="s">
+      <c r="L48" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="M48" s="42" t="s">
+      <c r="M48" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="N48" s="42">
+      <c r="N48" s="37">
         <v>0</v>
       </c>
-      <c r="O48" s="42" t="s">
+      <c r="O48" s="37" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="37">
         <v>0</v>
       </c>
-      <c r="G49" s="42">
+      <c r="G49" s="37">
         <v>0</v>
       </c>
-      <c r="H49" s="42" t="s">
+      <c r="H49" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="I49" s="46" t="s">
+      <c r="I49" s="41" t="s">
         <v>562</v>
       </c>
-      <c r="J49" s="42" t="s">
+      <c r="J49" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K49" s="42">
+      <c r="K49" s="37">
         <v>1</v>
       </c>
-      <c r="L49" s="46" t="s">
+      <c r="L49" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="M49" s="42" t="s">
+      <c r="M49" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="N49" s="42">
+      <c r="N49" s="37">
         <v>0</v>
       </c>
-      <c r="O49" s="42" t="s">
+      <c r="O49" s="37" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42" t="s">
-        <v>717</v>
-      </c>
-      <c r="F50" s="42">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37" t="s">
+        <v>716</v>
+      </c>
+      <c r="F50" s="37">
         <v>0</v>
       </c>
-      <c r="G50" s="42">
+      <c r="G50" s="37">
         <v>0</v>
       </c>
-      <c r="H50" s="47" t="s">
-        <v>716</v>
-      </c>
-      <c r="I50" s="42" t="s">
+      <c r="H50" s="42" t="s">
+        <v>720</v>
+      </c>
+      <c r="I50" s="37" t="s">
         <v>710</v>
       </c>
-      <c r="J50" s="42" t="s">
+      <c r="J50" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K50" s="42">
+      <c r="K50" s="37">
         <v>1</v>
       </c>
-      <c r="L50" s="46" t="s">
+      <c r="L50" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="M50" s="42" t="s">
+      <c r="M50" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="N50" s="42">
+      <c r="N50" s="37">
         <v>1</v>
       </c>
-      <c r="O50" s="42" t="s">
+      <c r="O50" s="37" t="s">
         <v>710</v>
       </c>
     </row>
@@ -21494,7 +21483,7 @@
     </row>
     <row r="129" spans="1:13">
       <c r="E129" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F129" t="str">
         <f>E50</f>
@@ -21515,7 +21504,7 @@
     </row>
     <row r="130" spans="1:13">
       <c r="E130" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F130" t="str">
         <f>E50</f>
@@ -22192,10 +22181,10 @@
     </row>
     <row r="178" spans="5:8">
       <c r="E178" t="s">
+        <v>719</v>
+      </c>
+      <c r="F178" s="42" t="s">
         <v>720</v>
-      </c>
-      <c r="F178" s="47" t="s">
-        <v>716</v>
       </c>
       <c r="G178">
         <v>1</v>
